--- a/db2.xlsx
+++ b/db2.xlsx
@@ -11,7 +11,8 @@
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="工作表3" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="皮卡丘" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="妙蛙種子" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="伊布" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="妙蛙種子" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
@@ -183,6 +184,30 @@
   </si>
   <si>
     <t xml:space="preserve">12.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">伊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月伊布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.gif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.pug</t>
   </si>
   <si>
     <t xml:space="preserve">妙蛙種子</t>
@@ -323,7 +348,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -383,7 +408,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -406,7 +431,7 @@
       <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -512,24 +537,22 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -541,9 +564,7 @@
       <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -553,7 +574,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -564,13 +585,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,13 +599,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,10 +616,118 @@
         <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>19</v>
       </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/db2.xlsx
+++ b/db2.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="皮卡丘" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="伊布" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="妙蛙種子" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="咚咚鼠" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="工作表3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="皮卡丘" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="伊布" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="妙蛙種子" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,11 +25,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t xml:space="preserve">姓名</t>
   </si>
   <si>
+    <t xml:space="preserve">咚咚鼠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年紀</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">圖片</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -36,6 +55,113 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.jpeg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">圖片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.jpeg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">圖片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">3.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.jpeg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK TC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">圖片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.jpeg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">will</t>
     </r>
     <r>
@@ -49,98 +175,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">年紀</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK TC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">圖片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK TC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">圖片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK TC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">圖片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Noto Sans CJK TC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">圖片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">雷丘 </t>
   </si>
   <si>
@@ -153,18 +187,9 @@
     <t xml:space="preserve">5.png</t>
   </si>
   <si>
-    <t xml:space="preserve">1.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.png</t>
   </si>
   <si>
-    <t xml:space="preserve">6.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.jpeg</t>
   </si>
   <si>
@@ -177,12 +202,6 @@
     <t xml:space="preserve">11.png</t>
   </si>
   <si>
-    <t xml:space="preserve">8.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">12.jpg</t>
   </si>
   <si>
@@ -192,21 +211,12 @@
     <t xml:space="preserve">月伊布</t>
   </si>
   <si>
-    <t xml:space="preserve">5.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">9.gif</t>
   </si>
   <si>
     <t xml:space="preserve">2.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">3.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.jpeg</t>
-  </si>
-  <si>
     <t xml:space="preserve">8.pug</t>
   </si>
   <si>
@@ -217,9 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">妙蛙花</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">6.png</t>
@@ -342,54 +349,98 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
@@ -402,17 +453,54 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
@@ -425,100 +513,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -534,29 +536,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="400" zoomScaleNormal="400" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -564,62 +568,65 @@
       <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -641,28 +648,26 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>19</v>
@@ -670,64 +675,170 @@
       <c r="C2" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
